--- a/global-rai-data.xlsx
+++ b/global-rai-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="740" windowWidth="26920" windowHeight="16860"/>
+    <workbookView xWindow="1860" yWindow="540" windowWidth="26920" windowHeight="16860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Open-Data-Approach" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3414,19 +3414,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -6385,7 +6373,90 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of pop" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of pop_rural" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of pop_not_served" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6502,90 +6573,7 @@
     <dataField name="Sum of pop_not_served" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of pop" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of pop_rural" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of pop_not_served" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6890,7 +6878,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J211" sqref="J211"/>
     </sheetView>
@@ -6975,7 +6963,7 @@
         <v>86674.855554899099</v>
       </c>
       <c r="J2" s="18">
-        <f>E2-F2</f>
+        <f t="shared" ref="J2:J65" si="0">E2-F2</f>
         <v>8321847.4010349996</v>
       </c>
       <c r="K2" s="18" t="str">
@@ -7016,7 +7004,7 @@
         <v>43119.191717354901</v>
       </c>
       <c r="J3" s="18">
-        <f>E3-F3</f>
+        <f t="shared" si="0"/>
         <v>11036357.863151899</v>
       </c>
       <c r="K3" s="18" t="str">
@@ -7057,7 +7045,7 @@
         <v>9062.7777633686401</v>
       </c>
       <c r="J4" s="18">
-        <f>E4-F4</f>
+        <f t="shared" si="0"/>
         <v>108210.43490368105</v>
       </c>
       <c r="K4" s="18" t="str">
@@ -7098,7 +7086,7 @@
         <v>338.19463349749901</v>
       </c>
       <c r="J5" s="18">
-        <f>E5-F5</f>
+        <f t="shared" si="0"/>
         <v>823.11738906334972</v>
       </c>
       <c r="K5" s="18" t="str">
@@ -7139,7 +7127,7 @@
         <v>18310.721199928801</v>
       </c>
       <c r="J6" s="18">
-        <f>E6-F6</f>
+        <f t="shared" si="0"/>
         <v>796714.14635939011</v>
       </c>
       <c r="K6" s="18" t="str">
@@ -7180,7 +7168,7 @@
         <v>199993.82792608</v>
       </c>
       <c r="J7" s="18">
-        <f>E7-F7</f>
+        <f t="shared" si="0"/>
         <v>2395424.8896260904</v>
       </c>
       <c r="K7" s="18" t="str">
@@ -7221,7 +7209,7 @@
         <v>8215.8567714075107</v>
       </c>
       <c r="J8" s="18">
-        <f>E8-F8</f>
+        <f t="shared" si="0"/>
         <v>76631.526568007073</v>
       </c>
       <c r="K8" s="18" t="str">
@@ -7262,7 +7250,7 @@
         <v>239.425373620074</v>
       </c>
       <c r="J9" s="18">
-        <f>E9-F9</f>
+        <f t="shared" si="0"/>
         <v>739.58563688956019</v>
       </c>
       <c r="K9" s="18" t="str">
@@ -7303,7 +7291,7 @@
         <v>309759.04674072302</v>
       </c>
       <c r="J10" s="18">
-        <f>E10-F10</f>
+        <f t="shared" si="0"/>
         <v>336496.97944281995</v>
       </c>
       <c r="K10" s="18" t="str">
@@ -7344,7 +7332,7 @@
         <v>42398.859718684602</v>
       </c>
       <c r="J11" s="18">
-        <f>E11-F11</f>
+        <f t="shared" si="0"/>
         <v>165579.95381980017</v>
       </c>
       <c r="K11" s="18" t="str">
@@ -7385,7 +7373,7 @@
         <v>17586.214000625001</v>
       </c>
       <c r="J12" s="18">
-        <f>E12-F12</f>
+        <f t="shared" si="0"/>
         <v>1580801.1051301602</v>
       </c>
       <c r="K12" s="18" t="str">
@@ -7426,7 +7414,7 @@
         <v>14366.6772216016</v>
       </c>
       <c r="J13" s="18">
-        <f>E13-F13</f>
+        <f t="shared" si="0"/>
         <v>739445.80626409873</v>
       </c>
       <c r="K13" s="18" t="str">
@@ -7467,7 +7455,7 @@
         <v>32674.793738418299</v>
       </c>
       <c r="J14" s="18">
-        <f>E14-F14</f>
+        <f t="shared" si="0"/>
         <v>16543.756748140091</v>
       </c>
       <c r="K14" s="18" t="str">
@@ -7508,7 +7496,7 @@
         <v>13457.331868801401</v>
       </c>
       <c r="J15" s="18">
-        <f>E15-F15</f>
+        <f t="shared" si="0"/>
         <v>3976258.2206253894</v>
       </c>
       <c r="K15" s="18" t="str">
@@ -7549,7 +7537,7 @@
         <v>20406.2959906002</v>
       </c>
       <c r="J16" s="18">
-        <f>E16-F16</f>
+        <f t="shared" si="0"/>
         <v>10582180.619432218</v>
       </c>
       <c r="K16" s="18" t="str">
@@ -7590,7 +7578,7 @@
         <v>37758.3030034486</v>
       </c>
       <c r="J17" s="18">
-        <f>E17-F17</f>
+        <f t="shared" si="0"/>
         <v>37442614.611068398</v>
       </c>
       <c r="K17" s="18" t="str">
@@ -7631,7 +7619,7 @@
         <v>24448.038563881</v>
       </c>
       <c r="J18" s="18">
-        <f>E18-F18</f>
+        <f t="shared" si="0"/>
         <v>800875.40051126992</v>
       </c>
       <c r="K18" s="18" t="str">
@@ -7672,7 +7660,7 @@
         <v>1326.50217476851</v>
       </c>
       <c r="J19" s="18">
-        <f>E19-F19</f>
+        <f t="shared" si="0"/>
         <v>5759.8026224369532</v>
       </c>
       <c r="K19" s="18" t="str">
@@ -7713,7 +7701,7 @@
         <v>1754.90130966112</v>
       </c>
       <c r="J20" s="18">
-        <f>E20-F20</f>
+        <f t="shared" si="0"/>
         <v>24459.37346443261</v>
       </c>
       <c r="K20" s="18" t="str">
@@ -7754,7 +7742,7 @@
         <v>13286.5152927198</v>
       </c>
       <c r="J21" s="18">
-        <f>E21-F21</f>
+        <f t="shared" si="0"/>
         <v>363645.38166759</v>
       </c>
       <c r="K21" s="18" t="str">
@@ -7795,7 +7783,7 @@
         <v>75049.195243874899</v>
       </c>
       <c r="J22" s="18">
-        <f>E22-F22</f>
+        <f t="shared" si="0"/>
         <v>116937.6097066002</v>
       </c>
       <c r="K22" s="18" t="str">
@@ -7836,7 +7824,7 @@
         <v>2462.4117301177798</v>
       </c>
       <c r="J23" s="18">
-        <f>E23-F23</f>
+        <f t="shared" si="0"/>
         <v>140745.80078333599</v>
       </c>
       <c r="K23" s="18" t="str">
@@ -7877,7 +7865,7 @@
         <v>140.43301557721699</v>
       </c>
       <c r="J24" s="18">
-        <f>E24-F24</f>
+        <f t="shared" si="0"/>
         <v>54.819134160799877</v>
       </c>
       <c r="K24" s="18" t="str">
@@ -7918,7 +7906,7 @@
         <v>54282.933455748404</v>
       </c>
       <c r="J25" s="18">
-        <f>E25-F25</f>
+        <f t="shared" si="0"/>
         <v>2722461.7412270498</v>
       </c>
       <c r="K25" s="18" t="str">
@@ -7959,7 +7947,7 @@
         <v>607148.37853900099</v>
       </c>
       <c r="J26" s="18">
-        <f>E26-F26</f>
+        <f t="shared" si="0"/>
         <v>12676423.344184298</v>
       </c>
       <c r="K26" s="18" t="str">
@@ -8000,7 +7988,7 @@
         <v>580.23708099645796</v>
       </c>
       <c r="J27" s="18">
-        <f>E27-F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="18" t="str">
@@ -8041,7 +8029,7 @@
         <v>1539.58722891194</v>
       </c>
       <c r="J28" s="18">
-        <f>E28-F28</f>
+        <f t="shared" si="0"/>
         <v>3139.1364591640995</v>
       </c>
       <c r="K28" s="18" t="str">
@@ -8082,7 +8070,7 @@
         <v>3590.12711475897</v>
       </c>
       <c r="J29" s="18">
-        <f>E29-F29</f>
+        <f t="shared" si="0"/>
         <v>390219.89049375796</v>
       </c>
       <c r="K29" s="18" t="str">
@@ -8123,7 +8111,7 @@
         <v>20188.105001300199</v>
       </c>
       <c r="J30" s="18">
-        <f>E30-F30</f>
+        <f t="shared" si="0"/>
         <v>715641.89970216202</v>
       </c>
       <c r="K30" s="18" t="str">
@@ -8164,7 +8152,7 @@
         <v>18884.394088323301</v>
       </c>
       <c r="J31" s="18">
-        <f>E31-F31</f>
+        <f t="shared" si="0"/>
         <v>1531479.1618552203</v>
       </c>
       <c r="K31" s="18" t="str">
@@ -8205,7 +8193,7 @@
         <v>339348.91024557402</v>
       </c>
       <c r="J32" s="18">
-        <f>E32-F32</f>
+        <f t="shared" si="0"/>
         <v>561589.97461686004</v>
       </c>
       <c r="K32" s="18" t="str">
@@ -8246,7 +8234,7 @@
         <v>24329.6824442119</v>
       </c>
       <c r="J33" s="18">
-        <f>E33-F33</f>
+        <f t="shared" si="0"/>
         <v>89843.240228690207</v>
       </c>
       <c r="K33" s="18" t="str">
@@ -8287,7 +8275,7 @@
         <v>89461.915455535607</v>
       </c>
       <c r="J34" s="18">
-        <f>E34-F34</f>
+        <f t="shared" si="0"/>
         <v>736962.97335286997</v>
       </c>
       <c r="K34" s="18" t="str">
@@ -8328,7 +8316,7 @@
         <v>1649524.9869762501</v>
       </c>
       <c r="J35" s="18">
-        <f>E35-F35</f>
+        <f t="shared" si="0"/>
         <v>149447693.15524507</v>
       </c>
       <c r="K35" s="18" t="str">
@@ -8369,7 +8357,7 @@
         <v>22389.072733176199</v>
       </c>
       <c r="J36" s="18">
-        <f>E36-F36</f>
+        <f t="shared" si="0"/>
         <v>9808112.7001304403</v>
       </c>
       <c r="K36" s="18" t="str">
@@ -8410,7 +8398,7 @@
         <v>43693.116121335297</v>
       </c>
       <c r="J37" s="18">
-        <f>E37-F37</f>
+        <f t="shared" si="0"/>
         <v>8228760.1471285988</v>
       </c>
       <c r="K37" s="18" t="str">
@@ -8451,7 +8439,7 @@
         <v>84251.425354487204</v>
       </c>
       <c r="J38" s="18">
-        <f>E38-F38</f>
+        <f t="shared" si="0"/>
         <v>46214114.623813398</v>
       </c>
       <c r="K38" s="18" t="str">
@@ -8492,7 +8480,7 @@
         <v>12232.1470167188</v>
       </c>
       <c r="J39" s="18">
-        <f>E39-F39</f>
+        <f t="shared" si="0"/>
         <v>1996746.8309254649</v>
       </c>
       <c r="K39" s="18" t="str">
@@ -8533,7 +8521,7 @@
         <v>59655.805957499302</v>
       </c>
       <c r="J40" s="18">
-        <f>E40-F40</f>
+        <f t="shared" si="0"/>
         <v>11336573.005425189</v>
       </c>
       <c r="K40" s="18" t="str">
@@ -8574,7 +8562,7 @@
         <v>616.33145568700195</v>
       </c>
       <c r="J41" s="18">
-        <f>E41-F41</f>
+        <f t="shared" si="0"/>
         <v>179010.08257308597</v>
       </c>
       <c r="K41" s="18" t="str">
@@ -8615,7 +8603,7 @@
         <v>1125.31006934825</v>
       </c>
       <c r="J42" s="18">
-        <f>E42-F42</f>
+        <f t="shared" si="0"/>
         <v>73543.739928183029</v>
       </c>
       <c r="K42" s="18" t="str">
@@ -8656,7 +8644,7 @@
         <v>8815.1570794483105</v>
       </c>
       <c r="J43" s="18">
-        <f>E43-F43</f>
+        <f t="shared" si="0"/>
         <v>406045.16107156896</v>
       </c>
       <c r="K43" s="18" t="str">
@@ -8697,7 +8685,7 @@
         <v>18543.782754629901</v>
       </c>
       <c r="J44" s="18">
-        <f>E44-F44</f>
+        <f t="shared" si="0"/>
         <v>1426118.0469974997</v>
       </c>
       <c r="K44" s="18" t="str">
@@ -8738,7 +8726,7 @@
         <v>3978.3152160637901</v>
       </c>
       <c r="J45" s="18">
-        <f>E45-F45</f>
+        <f t="shared" si="0"/>
         <v>99089.878726498515</v>
       </c>
       <c r="K45" s="18" t="str">
@@ -8779,7 +8767,7 @@
         <v>60946.450249353104</v>
       </c>
       <c r="J46" s="18">
-        <f>E46-F46</f>
+        <f t="shared" si="0"/>
         <v>11633.560290530324</v>
       </c>
       <c r="K46" s="18" t="str">
@@ -8820,7 +8808,7 @@
         <v>256235.99609477501</v>
       </c>
       <c r="J47" s="18">
-        <f>E47-F47</f>
+        <f t="shared" si="0"/>
         <v>285006.31617040187</v>
       </c>
       <c r="K47" s="18" t="str">
@@ -8861,7 +8849,7 @@
         <v>1225.13553173931</v>
       </c>
       <c r="J48" s="18">
-        <f>E48-F48</f>
+        <f t="shared" si="0"/>
         <v>287516.44888780103</v>
       </c>
       <c r="K48" s="18" t="str">
@@ -8902,7 +8890,7 @@
         <v>318.13660257368798</v>
       </c>
       <c r="J49" s="18">
-        <f>E49-F49</f>
+        <f t="shared" si="0"/>
         <v>4452.680714912698</v>
       </c>
       <c r="K49" s="18" t="str">
@@ -8943,7 +8931,7 @@
         <v>34333.1545803318</v>
       </c>
       <c r="J50" s="18">
-        <f>E50-F50</f>
+        <f t="shared" si="0"/>
         <v>23544.29240692989</v>
       </c>
       <c r="K50" s="18" t="str">
@@ -8984,7 +8972,7 @@
         <v>8355.4259603125993</v>
       </c>
       <c r="J51" s="18">
-        <f>E51-F51</f>
+        <f t="shared" si="0"/>
         <v>923079.37252697977</v>
       </c>
       <c r="K51" s="18" t="str">
@@ -9025,7 +9013,7 @@
         <v>96195.146886083501</v>
       </c>
       <c r="J52" s="18">
-        <f>E52-F52</f>
+        <f t="shared" si="0"/>
         <v>2819547.5301460996</v>
       </c>
       <c r="K52" s="18" t="str">
@@ -9066,7 +9054,7 @@
         <v>35204.856748201499</v>
       </c>
       <c r="J53" s="18">
-        <f>E53-F53</f>
+        <f t="shared" si="0"/>
         <v>1908711.3820462404</v>
       </c>
       <c r="K53" s="18" t="str">
@@ -9107,7 +9095,7 @@
         <v>56116.2129990213</v>
       </c>
       <c r="J54" s="18">
-        <f>E54-F54</f>
+        <f t="shared" si="0"/>
         <v>3287489.0302212983</v>
       </c>
       <c r="K54" s="18" t="str">
@@ -9148,7 +9136,7 @@
         <v>4915.5604399141102</v>
       </c>
       <c r="J55" s="18">
-        <f>E55-F55</f>
+        <f t="shared" si="0"/>
         <v>2320319.1825583503</v>
       </c>
       <c r="K55" s="18" t="str">
@@ -9189,7 +9177,7 @@
         <v>714.67777312115504</v>
       </c>
       <c r="J56" s="18">
-        <f>E56-F56</f>
+        <f t="shared" si="0"/>
         <v>292132.6003237649</v>
       </c>
       <c r="K56" s="18" t="str">
@@ -9230,7 +9218,7 @@
         <v>190089.82602104399</v>
       </c>
       <c r="J57" s="18">
-        <f>E57-F57</f>
+        <f t="shared" si="0"/>
         <v>482936.43204917014</v>
       </c>
       <c r="K57" s="18" t="str">
@@ -9271,7 +9259,7 @@
         <v>17915.432087372799</v>
       </c>
       <c r="J58" s="18">
-        <f>E58-F58</f>
+        <f t="shared" si="0"/>
         <v>5585.2131267840159</v>
       </c>
       <c r="K58" s="18" t="str">
@@ -9312,7 +9300,7 @@
         <v>56963.371737856098</v>
       </c>
       <c r="J59" s="18">
-        <f>E59-F59</f>
+        <f t="shared" si="0"/>
         <v>46976263.433812805</v>
       </c>
       <c r="K59" s="18" t="str">
@@ -9353,7 +9341,7 @@
         <v>81385.672550070507</v>
       </c>
       <c r="J60" s="18">
-        <f>E60-F60</f>
+        <f t="shared" si="0"/>
         <v>128961.13330947002</v>
       </c>
       <c r="K60" s="18" t="str">
@@ -9394,7 +9382,7 @@
         <v>2742.6722047920698</v>
       </c>
       <c r="J61" s="18">
-        <f>E61-F61</f>
+        <f t="shared" si="0"/>
         <v>97916.514586784004</v>
       </c>
       <c r="K61" s="18" t="str">
@@ -9435,7 +9423,7 @@
         <v>445204.85734289198</v>
       </c>
       <c r="J62" s="18">
-        <f>E62-F62</f>
+        <f t="shared" si="0"/>
         <v>139870.1862545982</v>
       </c>
       <c r="K62" s="18" t="str">
@@ -9476,7 +9464,7 @@
         <v>183.78689545796999</v>
       </c>
       <c r="J63" s="18">
-        <f>E63-F63</f>
+        <f t="shared" si="0"/>
         <v>21012.332545639001</v>
       </c>
       <c r="K63" s="18" t="str">
@@ -9517,7 +9505,7 @@
         <v>5984.5233096977699</v>
       </c>
       <c r="J64" s="18">
-        <f>E64-F64</f>
+        <f t="shared" si="0"/>
         <v>1676952.438645073</v>
       </c>
       <c r="K64" s="18" t="str">
@@ -9558,7 +9546,7 @@
         <v>156370.93599813399</v>
       </c>
       <c r="J65" s="18">
-        <f>E65-F65</f>
+        <f t="shared" si="0"/>
         <v>167851.2008293597</v>
       </c>
       <c r="K65" s="18" t="str">
@@ -9599,7 +9587,7 @@
         <v>14104.756322282899</v>
       </c>
       <c r="J66" s="18">
-        <f>E66-F66</f>
+        <f t="shared" ref="J66:J129" si="1">E66-F66</f>
         <v>257095.01404936006</v>
       </c>
       <c r="K66" s="18" t="str">
@@ -9640,7 +9628,7 @@
         <v>28319.6343363292</v>
       </c>
       <c r="J67" s="18">
-        <f>E67-F67</f>
+        <f t="shared" si="1"/>
         <v>7109752.8254780993</v>
       </c>
       <c r="K67" s="18" t="str">
@@ -9681,7 +9669,7 @@
         <v>21468.683915159399</v>
       </c>
       <c r="J68" s="18">
-        <f>E68-F68</f>
+        <f t="shared" si="1"/>
         <v>4430114.1232889304</v>
       </c>
       <c r="K68" s="18" t="str">
@@ -9722,7 +9710,7 @@
         <v>1727.8049176301799</v>
       </c>
       <c r="J69" s="18">
-        <f>E69-F69</f>
+        <f t="shared" si="1"/>
         <v>379071.92946068302</v>
       </c>
       <c r="K69" s="18" t="str">
@@ -9763,7 +9751,7 @@
         <v>2039.1827228803299</v>
       </c>
       <c r="J70" s="18">
-        <f>E70-F70</f>
+        <f t="shared" si="1"/>
         <v>901278.66916374606</v>
       </c>
       <c r="K70" s="18" t="str">
@@ -9804,7 +9792,7 @@
         <v>3515.3956607353898</v>
       </c>
       <c r="J71" s="18">
-        <f>E71-F71</f>
+        <f t="shared" si="1"/>
         <v>558308.96353883797</v>
       </c>
       <c r="K71" s="18" t="str">
@@ -9845,7 +9833,7 @@
         <v>76751.822219784197</v>
       </c>
       <c r="J72" s="18">
-        <f>E72-F72</f>
+        <f t="shared" si="1"/>
         <v>104799.14062517998</v>
       </c>
       <c r="K72" s="18" t="str">
@@ -9886,7 +9874,7 @@
         <v>244.55777510377899</v>
       </c>
       <c r="J73" s="18">
-        <f>E73-F73</f>
+        <f t="shared" si="1"/>
         <v>1773.2141025363999</v>
       </c>
       <c r="K73" s="18" t="str">
@@ -9927,7 +9915,7 @@
         <v>138.66190443635901</v>
       </c>
       <c r="J74" s="18">
-        <f>E74-F74</f>
+        <f t="shared" si="1"/>
         <v>12765.284455449299</v>
       </c>
       <c r="K74" s="18" t="str">
@@ -9968,7 +9956,7 @@
         <v>18157.5844464906</v>
       </c>
       <c r="J75" s="18">
-        <f>E75-F75</f>
+        <f t="shared" si="1"/>
         <v>4509531.2963309297</v>
       </c>
       <c r="K75" s="18" t="str">
@@ -10009,7 +9997,7 @@
         <v>343.84790983887501</v>
       </c>
       <c r="J76" s="18">
-        <f>E76-F76</f>
+        <f t="shared" si="1"/>
         <v>113.44039486254997</v>
       </c>
       <c r="K76" s="18" t="str">
@@ -10050,7 +10038,7 @@
         <v>2635.2326898371298</v>
       </c>
       <c r="J77" s="18">
-        <f>E77-F77</f>
+        <f t="shared" si="1"/>
         <v>169672.09537796202</v>
       </c>
       <c r="K77" s="18" t="str">
@@ -10091,7 +10079,7 @@
         <v>12284.8695620486</v>
       </c>
       <c r="J78" s="18">
-        <f>E78-F78</f>
+        <f t="shared" si="1"/>
         <v>2478092.8642158499</v>
       </c>
       <c r="K78" s="18" t="str">
@@ -10132,7 +10120,7 @@
         <v>29692.498233611099</v>
       </c>
       <c r="J79" s="18">
-        <f>E79-F79</f>
+        <f t="shared" si="1"/>
         <v>81345.19761877018</v>
       </c>
       <c r="K79" s="18" t="str">
@@ -10173,7 +10161,7 @@
         <v>4401.1337086685398</v>
       </c>
       <c r="J80" s="18">
-        <f>E80-F80</f>
+        <f t="shared" si="1"/>
         <v>3926392.0254053799</v>
       </c>
       <c r="K80" s="18" t="str">
@@ -10214,7 +10202,7 @@
         <v>34962.305596555801</v>
       </c>
       <c r="J81" s="18">
-        <f>E81-F81</f>
+        <f t="shared" si="1"/>
         <v>180608.32838669023</v>
       </c>
       <c r="K81" s="18" t="str">
@@ -10255,7 +10243,7 @@
         <v>226240.60917901201</v>
       </c>
       <c r="J82" s="18">
-        <f>E82-F82</f>
+        <f t="shared" si="1"/>
         <v>45621124.538066015</v>
       </c>
       <c r="K82" s="18" t="str">
@@ -10296,7 +10284,7 @@
         <v>945309.09545546898</v>
       </c>
       <c r="J83" s="18">
-        <f>E83-F83</f>
+        <f t="shared" si="1"/>
         <v>230614073.18526006</v>
       </c>
       <c r="K83" s="18" t="str">
@@ -10337,7 +10325,7 @@
         <v>37167.6461560155</v>
       </c>
       <c r="J84" s="18">
-        <f>E84-F84</f>
+        <f t="shared" si="1"/>
         <v>92219.62519152998</v>
       </c>
       <c r="K84" s="18" t="str">
@@ -10378,7 +10366,7 @@
         <v>232622.667306046</v>
       </c>
       <c r="J85" s="18">
-        <f>E85-F85</f>
+        <f t="shared" si="1"/>
         <v>10392688.8969425</v>
       </c>
       <c r="K85" s="18" t="str">
@@ -10419,7 +10407,7 @@
         <v>50608.601696538499</v>
       </c>
       <c r="J86" s="18">
-        <f>E86-F86</f>
+        <f t="shared" si="1"/>
         <v>9937465.1447489988</v>
       </c>
       <c r="K86" s="18" t="str">
@@ -10460,7 +10448,7 @@
         <v>13202.4313437662</v>
       </c>
       <c r="J87" s="18">
-        <f>E87-F87</f>
+        <f t="shared" si="1"/>
         <v>16122.680648918496</v>
       </c>
       <c r="K87" s="18" t="str">
@@ -10501,7 +10489,7 @@
         <v>14050.501194443301</v>
       </c>
       <c r="J88" s="18">
-        <f>E88-F88</f>
+        <f t="shared" si="1"/>
         <v>78958.189555361052</v>
       </c>
       <c r="K88" s="18" t="str">
@@ -10542,7 +10530,7 @@
         <v>210073.27448745401</v>
       </c>
       <c r="J89" s="18">
-        <f>E89-F89</f>
+        <f t="shared" si="1"/>
         <v>90321.722876800224</v>
       </c>
       <c r="K89" s="18" t="str">
@@ -10583,7 +10571,7 @@
         <v>3288.1056302070901</v>
       </c>
       <c r="J90" s="18">
-        <f>E90-F90</f>
+        <f t="shared" si="1"/>
         <v>200842.41828325792</v>
       </c>
       <c r="K90" s="18" t="str">
@@ -10624,7 +10612,7 @@
         <v>255.648534297987</v>
       </c>
       <c r="J91" s="18">
-        <f>E91-F91</f>
+        <f t="shared" si="1"/>
         <v>10.404290601600223</v>
       </c>
       <c r="K91" s="18" t="str">
@@ -10665,7 +10653,7 @@
         <v>11432.2201089551</v>
       </c>
       <c r="J92" s="18">
-        <f>E92-F92</f>
+        <f t="shared" si="1"/>
         <v>262927.25111138984</v>
       </c>
       <c r="K92" s="18" t="str">
@@ -10706,7 +10694,7 @@
         <v>324690.791300649</v>
       </c>
       <c r="J93" s="18">
-        <f>E93-F93</f>
+        <f t="shared" si="1"/>
         <v>553681.11996029876</v>
       </c>
       <c r="K93" s="18" t="str">
@@ -10747,7 +10735,7 @@
         <v>88021.108413382201</v>
       </c>
       <c r="J94" s="18">
-        <f>E94-F94</f>
+        <f t="shared" si="1"/>
         <v>5530427.5460825898</v>
       </c>
       <c r="K94" s="18" t="str">
@@ -10788,7 +10776,7 @@
         <v>40493.450127844299</v>
       </c>
       <c r="J95" s="18">
-        <f>E95-F95</f>
+        <f t="shared" si="1"/>
         <v>15288189.531114202</v>
       </c>
       <c r="K95" s="18" t="str">
@@ -10829,7 +10817,7 @@
         <v>14840.726969401099</v>
       </c>
       <c r="J96" s="18">
-        <f>E96-F96</f>
+        <f t="shared" si="1"/>
         <v>1355419.9140524303</v>
       </c>
       <c r="K96" s="18" t="str">
@@ -10870,7 +10858,7 @@
         <v>14693.9214819396</v>
       </c>
       <c r="J97" s="18">
-        <f>E97-F97</f>
+        <f t="shared" si="1"/>
         <v>7429576.5038028201</v>
       </c>
       <c r="K97" s="18" t="str">
@@ -10911,7 +10899,7 @@
         <v>315.35688059205302</v>
       </c>
       <c r="J98" s="18">
-        <f>E98-F98</f>
+        <f t="shared" si="1"/>
         <v>21229.599191947302</v>
       </c>
       <c r="K98" s="18" t="str">
@@ -10952,7 +10940,7 @@
         <v>182.62228010872599</v>
       </c>
       <c r="J99" s="18">
-        <f>E99-F99</f>
+        <f t="shared" si="1"/>
         <v>384.39211566745962</v>
       </c>
       <c r="K99" s="18" t="str">
@@ -10993,7 +10981,7 @@
         <v>77097.493313828207</v>
       </c>
       <c r="J100" s="18">
-        <f>E100-F100</f>
+        <f t="shared" si="1"/>
         <v>208859.3466092106</v>
       </c>
       <c r="K100" s="18" t="str">
@@ -11034,7 +11022,7 @@
         <v>4442.3627202011303</v>
       </c>
       <c r="J101" s="18">
-        <f>E101-F101</f>
+        <f t="shared" si="1"/>
         <v>274599.9272582999</v>
       </c>
       <c r="K101" s="18" t="s">
@@ -11073,7 +11061,7 @@
         <v>4612.9442668523097</v>
       </c>
       <c r="J102" s="18">
-        <f>E102-F102</f>
+        <f t="shared" si="1"/>
         <v>204260.10992614599</v>
       </c>
       <c r="K102" s="18" t="str">
@@ -11114,7 +11102,7 @@
         <v>19645.086552296001</v>
       </c>
       <c r="J103" s="18">
-        <f>E103-F103</f>
+        <f t="shared" si="1"/>
         <v>2664767.2615607199</v>
       </c>
       <c r="K103" s="18" t="str">
@@ -11155,7 +11143,7 @@
         <v>8772.4795389859191</v>
       </c>
       <c r="J104" s="18">
-        <f>E104-F104</f>
+        <f t="shared" si="1"/>
         <v>45868.718441880308</v>
       </c>
       <c r="K104" s="18" t="str">
@@ -11196,7 +11184,7 @@
         <v>7264.5994562694004</v>
       </c>
       <c r="J105" s="18">
-        <f>E105-F105</f>
+        <f t="shared" si="1"/>
         <v>1680654.4109320403</v>
       </c>
       <c r="K105" s="18" t="str">
@@ -11237,7 +11225,7 @@
         <v>27820.212982601701</v>
       </c>
       <c r="J106" s="18">
-        <f>E106-F106</f>
+        <f t="shared" si="1"/>
         <v>1099438.3429477999</v>
       </c>
       <c r="K106" s="18" t="str">
@@ -11278,7 +11266,7 @@
         <v>269.961034604041</v>
       </c>
       <c r="J107" s="18">
-        <f>E107-F107</f>
+        <f t="shared" si="1"/>
         <v>4440.0179324745986</v>
       </c>
       <c r="K107" s="18" t="str">
@@ -11319,7 +11307,7 @@
         <v>199.25919316041299</v>
       </c>
       <c r="J108" s="18">
-        <f>E108-F108</f>
+        <f t="shared" si="1"/>
         <v>2574.8311465829602</v>
       </c>
       <c r="K108" s="18" t="str">
@@ -11360,7 +11348,7 @@
         <v>25653.016900979201</v>
       </c>
       <c r="J109" s="18">
-        <f>E109-F109</f>
+        <f t="shared" si="1"/>
         <v>714636.27926849946</v>
       </c>
       <c r="K109" s="18" t="str">
@@ -11401,7 +11389,7 @@
         <v>5353.7966798242496</v>
       </c>
       <c r="J110" s="18">
-        <f>E110-F110</f>
+        <f t="shared" si="1"/>
         <v>524979.33326929703</v>
       </c>
       <c r="K110" s="18" t="str">
@@ -11442,7 +11430,7 @@
         <v>24017.713601072101</v>
       </c>
       <c r="J111" s="18">
-        <f>E111-F111</f>
+        <f t="shared" si="1"/>
         <v>82027.994495339924</v>
       </c>
       <c r="K111" s="18" t="str">
@@ -11483,7 +11471,7 @@
         <v>4218.9583507109601</v>
       </c>
       <c r="J112" s="18">
-        <f>E112-F112</f>
+        <f t="shared" si="1"/>
         <v>28.899570344990934</v>
       </c>
       <c r="K112" s="18" t="str">
@@ -11524,7 +11512,7 @@
         <v>25531.4403917298</v>
       </c>
       <c r="J113" s="18">
-        <f>E113-F113</f>
+        <f t="shared" si="1"/>
         <v>64184.951679826947</v>
       </c>
       <c r="K113" s="18" t="str">
@@ -11565,7 +11553,7 @@
         <v>62070.2738396512</v>
       </c>
       <c r="J114" s="18">
-        <f>E114-F114</f>
+        <f t="shared" si="1"/>
         <v>3067451.0571508817</v>
       </c>
       <c r="K114" s="18" t="str">
@@ -11606,7 +11594,7 @@
         <v>182.20086501369801</v>
       </c>
       <c r="J115" s="18">
-        <f>E115-F115</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K115" s="18" t="str">
@@ -11647,7 +11635,7 @@
         <v>12705.5743683568</v>
       </c>
       <c r="J116" s="18">
-        <f>E116-F116</f>
+        <f t="shared" si="1"/>
         <v>163480.50403649965</v>
       </c>
       <c r="K116" s="18" t="str">
@@ -11688,7 +11676,7 @@
         <v>18953.4832511694</v>
       </c>
       <c r="J117" s="18">
-        <f>E117-F117</f>
+        <f t="shared" si="1"/>
         <v>16745056.591821231</v>
       </c>
       <c r="K117" s="18" t="str">
@@ -11729,7 +11717,7 @@
         <v>96.524844368020894</v>
       </c>
       <c r="J118" s="18">
-        <f>E118-F118</f>
+        <f t="shared" si="1"/>
         <v>200428.98280680995</v>
       </c>
       <c r="K118" s="18" t="str">
@@ -11770,7 +11758,7 @@
         <v>274913.20190874499</v>
       </c>
       <c r="J119" s="18">
-        <f>E119-F119</f>
+        <f t="shared" si="1"/>
         <v>4486484.1673358008</v>
       </c>
       <c r="K119" s="18" t="str">
@@ -11811,7 +11799,7 @@
         <v>6797.4207953248497</v>
       </c>
       <c r="J120" s="18">
-        <f>E120-F120</f>
+        <f t="shared" si="1"/>
         <v>246349.32508906408</v>
       </c>
       <c r="K120" s="18" t="str">
@@ -11852,7 +11840,7 @@
         <v>29003.750672275601</v>
       </c>
       <c r="J121" s="18">
-        <f>E121-F121</f>
+        <f t="shared" si="1"/>
         <v>9787183.8231843002</v>
       </c>
       <c r="K121" s="18" t="str">
@@ -11893,7 +11881,7 @@
         <v>677.22728067574496</v>
       </c>
       <c r="J122" s="18">
-        <f>E122-F122</f>
+        <f t="shared" si="1"/>
         <v>351.10958343739912</v>
       </c>
       <c r="K122" s="18" t="str">
@@ -11934,7 +11922,7 @@
         <v>46348.398218110997</v>
       </c>
       <c r="J123" s="18">
-        <f>E123-F123</f>
+        <f t="shared" si="1"/>
         <v>19905546.747402899</v>
       </c>
       <c r="K123" s="18" t="str">
@@ -11975,7 +11963,7 @@
         <v>3399.9277131602298</v>
       </c>
       <c r="J124" s="18">
-        <f>E124-F124</f>
+        <f t="shared" si="1"/>
         <v>64627.496374779992</v>
       </c>
       <c r="K124" s="18" t="str">
@@ -12016,7 +12004,7 @@
         <v>38690.223831825002</v>
       </c>
       <c r="J125" s="18">
-        <f>E125-F125</f>
+        <f t="shared" si="1"/>
         <v>802637.84075507591</v>
       </c>
       <c r="K125" s="18" t="str">
@@ -12057,7 +12045,7 @@
         <v>277.03855849294501</v>
       </c>
       <c r="J126" s="18">
-        <f>E126-F126</f>
+        <f t="shared" si="1"/>
         <v>14.09895584593005</v>
       </c>
       <c r="K126" s="18" t="str">
@@ -12098,7 +12086,7 @@
         <v>38539.851867970297</v>
       </c>
       <c r="J127" s="18">
-        <f>E127-F127</f>
+        <f t="shared" si="1"/>
         <v>13641390.043714499</v>
       </c>
       <c r="K127" s="18" t="str">
@@ -12139,7 +12127,7 @@
         <v>7280.0116747817701</v>
       </c>
       <c r="J128" s="18">
-        <f>E128-F128</f>
+        <f t="shared" si="1"/>
         <v>1975721.6747410442</v>
       </c>
       <c r="K128" s="18" t="str">
@@ -12180,7 +12168,7 @@
         <v>1561.4230842437701</v>
       </c>
       <c r="J129" s="18">
-        <f>E129-F129</f>
+        <f t="shared" si="1"/>
         <v>6327.6314691109874</v>
       </c>
       <c r="K129" s="18" t="str">
@@ -12221,7 +12209,7 @@
         <v>15816.533146338499</v>
       </c>
       <c r="J130" s="18">
-        <f>E130-F130</f>
+        <f t="shared" ref="J130:J193" si="2">E130-F130</f>
         <v>5140661.8993501384</v>
       </c>
       <c r="K130" s="18" t="str">
@@ -12262,7 +12250,7 @@
         <v>49799.507279048099</v>
       </c>
       <c r="J131" s="18">
-        <f>E131-F131</f>
+        <f t="shared" si="2"/>
         <v>3093191.7343429103</v>
       </c>
       <c r="K131" s="18" t="str">
@@ -12303,7 +12291,7 @@
         <v>43381.484742911802</v>
       </c>
       <c r="J132" s="18">
-        <f>E132-F132</f>
+        <f t="shared" si="2"/>
         <v>618246.16851420607</v>
       </c>
       <c r="K132" s="18" t="str">
@@ -12344,7 +12332,7 @@
         <v>16306.94062519</v>
       </c>
       <c r="J133" s="18">
-        <f>E133-F133</f>
+        <f t="shared" si="2"/>
         <v>13883752.077082291</v>
       </c>
       <c r="K133" s="18" t="str">
@@ -12385,7 +12373,7 @@
         <v>115835.60797492899</v>
       </c>
       <c r="J134" s="18">
-        <f>E134-F134</f>
+        <f t="shared" si="2"/>
         <v>55651018.530358002</v>
       </c>
       <c r="K134" s="18" t="str">
@@ -12426,7 +12414,7 @@
         <v>8528.2638539820891</v>
       </c>
       <c r="J135" s="18">
-        <f>E135-F135</f>
+        <f t="shared" si="2"/>
         <v>2311296.00059414</v>
       </c>
       <c r="K135" s="18" t="str">
@@ -12467,7 +12455,7 @@
         <v>105.22925428422199</v>
       </c>
       <c r="J136" s="18">
-        <f>E136-F136</f>
+        <f t="shared" si="2"/>
         <v>72.85373877362008</v>
       </c>
       <c r="K136" s="18" t="str">
@@ -12508,7 +12496,7 @@
         <v>38060.886763043301</v>
       </c>
       <c r="J137" s="18">
-        <f>E137-F137</f>
+        <f t="shared" si="2"/>
         <v>49009.897330469918</v>
       </c>
       <c r="K137" s="18" t="str">
@@ -12549,7 +12537,7 @@
         <v>61698.317182389503</v>
       </c>
       <c r="J138" s="18">
-        <f>E138-F138</f>
+        <f t="shared" si="2"/>
         <v>255620.3355671881</v>
       </c>
       <c r="K138" s="18" t="str">
@@ -12590,7 +12578,7 @@
         <v>24576.162099696401</v>
       </c>
       <c r="J139" s="18">
-        <f>E139-F139</f>
+        <f t="shared" si="2"/>
         <v>6127645.9215128999</v>
       </c>
       <c r="K139" s="18" t="str">
@@ -12631,7 +12619,7 @@
         <v>16.8566111505843</v>
       </c>
       <c r="J140" s="18">
-        <f>E140-F140</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K140" s="18" t="str">
@@ -12672,7 +12660,7 @@
         <v>29280.2080360658</v>
       </c>
       <c r="J141" s="18">
-        <f>E141-F141</f>
+        <f t="shared" si="2"/>
         <v>133989.15549532208</v>
       </c>
       <c r="K141" s="18" t="str">
@@ -12713,7 +12701,7 @@
         <v>19764.3191248355</v>
       </c>
       <c r="J142" s="18">
-        <f>E142-F142</f>
+        <f t="shared" si="2"/>
         <v>747197.68954061007</v>
       </c>
       <c r="K142" s="18" t="str">
@@ -12754,7 +12742,7 @@
         <v>104638.819129027</v>
       </c>
       <c r="J143" s="18">
-        <f>E143-F143</f>
+        <f t="shared" si="2"/>
         <v>47505881.964346603</v>
       </c>
       <c r="K143" s="18" t="str">
@@ -12795,7 +12783,7 @@
         <v>5958.6551354298699</v>
       </c>
       <c r="J144" s="18">
-        <f>E144-F144</f>
+        <f t="shared" si="2"/>
         <v>759565.75454359909</v>
       </c>
       <c r="K144" s="18" t="str">
@@ -12836,7 +12824,7 @@
         <v>125684.17946297801</v>
       </c>
       <c r="J145" s="18">
-        <f>E145-F145</f>
+        <f t="shared" si="2"/>
         <v>4775643.1981403707</v>
       </c>
       <c r="K145" s="18" t="str">
@@ -12877,7 +12865,7 @@
         <v>83295.082871921404</v>
       </c>
       <c r="J146" s="18">
-        <f>E146-F146</f>
+        <f t="shared" si="2"/>
         <v>9687398.9534393996</v>
       </c>
       <c r="K146" s="18" t="str">
@@ -12918,7 +12906,7 @@
         <v>169.89570578881299</v>
       </c>
       <c r="J147" s="18">
-        <f>E147-F147</f>
+        <f t="shared" si="2"/>
         <v>6723.8386697899987</v>
       </c>
       <c r="K147" s="18" t="str">
@@ -12959,7 +12947,7 @@
         <v>9720.6637370088592</v>
       </c>
       <c r="J148" s="18">
-        <f>E148-F148</f>
+        <f t="shared" si="2"/>
         <v>6304859.7117549302</v>
       </c>
       <c r="K148" s="18" t="str">
@@ -13000,7 +12988,7 @@
         <v>146806.775445935</v>
       </c>
       <c r="J149" s="18">
-        <f>E149-F149</f>
+        <f t="shared" si="2"/>
         <v>830967.6942309998</v>
       </c>
       <c r="K149" s="18" t="str">
@@ -13041,7 +13029,7 @@
         <v>8241.9479231293699</v>
       </c>
       <c r="J150" s="18">
-        <f>E150-F150</f>
+        <f t="shared" si="2"/>
         <v>304.5496191449929</v>
       </c>
       <c r="K150" s="18" t="str">
@@ -13082,7 +13070,7 @@
         <v>30687.996649623699</v>
       </c>
       <c r="J151" s="18">
-        <f>E151-F151</f>
+        <f t="shared" si="2"/>
         <v>2708284.186915502</v>
       </c>
       <c r="K151" s="18" t="str">
@@ -13123,7 +13111,7 @@
         <v>55916.438147657798</v>
       </c>
       <c r="J152" s="18">
-        <f>E152-F152</f>
+        <f t="shared" si="2"/>
         <v>24888.68015565956</v>
       </c>
       <c r="K152" s="18" t="str">
@@ -13164,7 +13152,7 @@
         <v>22847.4406075152</v>
       </c>
       <c r="J153" s="18">
-        <f>E153-F153</f>
+        <f t="shared" si="2"/>
         <v>1212762.3131971299</v>
       </c>
       <c r="K153" s="18" t="str">
@@ -13205,7 +13193,7 @@
         <v>6041.5934753704596</v>
       </c>
       <c r="J154" s="18">
-        <f>E154-F154</f>
+        <f t="shared" si="2"/>
         <v>24740.905350013985</v>
       </c>
       <c r="K154" s="18" t="str">
@@ -13246,7 +13234,7 @@
         <v>3856.7660964910301</v>
       </c>
       <c r="J155" s="18">
-        <f>E155-F155</f>
+        <f t="shared" si="2"/>
         <v>173942.02767368895</v>
       </c>
       <c r="K155" s="18" t="str">
@@ -13287,7 +13275,7 @@
         <v>70743.427783898806</v>
       </c>
       <c r="J156" s="18">
-        <f>E156-F156</f>
+        <f t="shared" si="2"/>
         <v>2570169.5862486996</v>
       </c>
       <c r="K156" s="18" t="str">
@@ -13328,7 +13316,7 @@
         <v>629602.02223334403</v>
       </c>
       <c r="J157" s="18">
-        <f>E157-F157</f>
+        <f t="shared" si="2"/>
         <v>8487898.6489064991</v>
       </c>
       <c r="K157" s="18" t="str">
@@ -13369,7 +13357,7 @@
         <v>8455.6042093525903</v>
       </c>
       <c r="J158" s="18">
-        <f>E158-F158</f>
+        <f t="shared" si="2"/>
         <v>2194850.9073846694</v>
       </c>
       <c r="K158" s="18" t="str">
@@ -13410,7 +13398,7 @@
         <v>122627.387138673</v>
       </c>
       <c r="J159" s="18">
-        <f>E159-F159</f>
+        <f t="shared" si="2"/>
         <v>8439535.8682650104</v>
       </c>
       <c r="K159" s="18" t="str">
@@ -13451,7 +13439,7 @@
         <v>29539.809084702101</v>
       </c>
       <c r="J160" s="18">
-        <f>E160-F160</f>
+        <f t="shared" si="2"/>
         <v>27822709.128397509</v>
       </c>
       <c r="K160" s="18" t="str">
@@ -13492,7 +13480,7 @@
         <v>14753.026542664</v>
       </c>
       <c r="J161" s="18">
-        <f>E161-F161</f>
+        <f t="shared" si="2"/>
         <v>5651615.7017006204</v>
       </c>
       <c r="K161" s="18" t="str">
@@ -13533,7 +13521,7 @@
         <v>2591.6492429149198</v>
       </c>
       <c r="J162" s="18">
-        <f>E162-F162</f>
+        <f t="shared" si="2"/>
         <v>14.125674158000038</v>
       </c>
       <c r="K162" s="18" t="str">
@@ -13574,7 +13562,7 @@
         <v>93.738845153888505</v>
       </c>
       <c r="J163" s="18">
-        <f>E163-F163</f>
+        <f t="shared" si="2"/>
         <v>2158.06044511031</v>
       </c>
       <c r="K163" s="18" t="str">
@@ -13615,7 +13603,7 @@
         <v>745.774150321668</v>
       </c>
       <c r="J164" s="18">
-        <f>E164-F164</f>
+        <f t="shared" si="2"/>
         <v>401799.76043340098</v>
       </c>
       <c r="K164" s="18" t="str">
@@ -13656,7 +13644,7 @@
         <v>7463.4185886524801</v>
       </c>
       <c r="J165" s="18">
-        <f>E165-F165</f>
+        <f t="shared" si="2"/>
         <v>2066499.80650482</v>
       </c>
       <c r="K165" s="18" t="str">
@@ -13697,7 +13685,7 @@
         <v>9150.0645099922003</v>
       </c>
       <c r="J166" s="18">
-        <f>E166-F166</f>
+        <f t="shared" si="2"/>
         <v>381920.22960629012</v>
       </c>
       <c r="K166" s="18" t="str">
@@ -13738,7 +13726,7 @@
         <v>305.56752675019101</v>
       </c>
       <c r="J167" s="18">
-        <f>E167-F167</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K167" s="18" t="str">
@@ -13779,7 +13767,7 @@
         <v>4347.8034797668997</v>
       </c>
       <c r="J168" s="18">
-        <f>E168-F168</f>
+        <f t="shared" si="2"/>
         <v>3165980.6024872572</v>
       </c>
       <c r="K168" s="18" t="s">
@@ -13818,7 +13806,7 @@
         <v>9131.6364096652796</v>
       </c>
       <c r="J169" s="18">
-        <f>E169-F169</f>
+        <f t="shared" si="2"/>
         <v>6404950.8909582105</v>
       </c>
       <c r="K169" s="18" t="str">
@@ -13859,7 +13847,7 @@
         <v>19002.580607470802</v>
       </c>
       <c r="J170" s="18">
-        <f>E170-F170</f>
+        <f t="shared" si="2"/>
         <v>468685.82870705007</v>
       </c>
       <c r="K170" s="18" t="str">
@@ -13900,7 +13888,7 @@
         <v>17442.536574346599</v>
       </c>
       <c r="J171" s="18">
-        <f>E171-F171</f>
+        <f t="shared" si="2"/>
         <v>12445835.639994189</v>
       </c>
       <c r="K171" s="18" t="str">
@@ -13941,7 +13929,7 @@
         <v>303.84327172267598</v>
       </c>
       <c r="J172" s="18">
-        <f>E172-F172</f>
+        <f t="shared" si="2"/>
         <v>35630.784123204605</v>
       </c>
       <c r="K172" s="18" t="str">
@@ -13982,7 +13970,7 @@
         <v>1749.22993704083</v>
       </c>
       <c r="J173" s="18">
-        <f>E173-F173</f>
+        <f t="shared" si="2"/>
         <v>113610.65750008301</v>
       </c>
       <c r="K173" s="18" t="str">
@@ -14023,7 +14011,7 @@
         <v>20421.7990644848</v>
       </c>
       <c r="J174" s="18">
-        <f>E174-F174</f>
+        <f t="shared" si="2"/>
         <v>104931.04756112979</v>
       </c>
       <c r="K174" s="18" t="str">
@@ -14064,7 +14052,7 @@
         <v>11372.991175721099</v>
       </c>
       <c r="J175" s="18">
-        <f>E175-F175</f>
+        <f t="shared" si="2"/>
         <v>49922.62491754198</v>
       </c>
       <c r="K175" s="18" t="str">
@@ -14105,7 +14093,7 @@
         <v>109921.760213495</v>
       </c>
       <c r="J176" s="18">
-        <f>E176-F176</f>
+        <f t="shared" si="2"/>
         <v>121150.54122379003</v>
       </c>
       <c r="K176" s="18" t="str">
@@ -14146,7 +14134,7 @@
         <v>4583.9988718881104</v>
       </c>
       <c r="J177" s="18">
-        <f>E177-F177</f>
+        <f t="shared" si="2"/>
         <v>180027.6716993599</v>
       </c>
       <c r="K177" s="18" t="str">
@@ -14187,7 +14175,7 @@
         <v>192.37291335793401</v>
       </c>
       <c r="J178" s="18">
-        <f>E178-F178</f>
+        <f t="shared" si="2"/>
         <v>2655.3820881425054</v>
       </c>
       <c r="K178" s="18" t="str">
@@ -14228,7 +14216,7 @@
         <v>46861.112492934903</v>
       </c>
       <c r="J179" s="18">
-        <f>E179-F179</f>
+        <f t="shared" si="2"/>
         <v>1387235.1402756702</v>
       </c>
       <c r="K179" s="18" t="str">
@@ -14269,7 +14257,7 @@
         <v>157.03197851384499</v>
       </c>
       <c r="J180" s="18">
-        <f>E180-F180</f>
+        <f t="shared" si="2"/>
         <v>2198.5979660826297</v>
       </c>
       <c r="K180" s="18" t="str">
@@ -14310,7 +14298,7 @@
         <v>18601.3130621276</v>
       </c>
       <c r="J181" s="18">
-        <f>E181-F181</f>
+        <f t="shared" si="2"/>
         <v>11327542.36898737</v>
       </c>
       <c r="K181" s="18" t="str">
@@ -14351,7 +14339,7 @@
         <v>7335.1578698662397</v>
       </c>
       <c r="J182" s="18">
-        <f>E182-F182</f>
+        <f t="shared" si="2"/>
         <v>2076835.10331466</v>
       </c>
       <c r="K182" s="18" t="str">
@@ -14392,7 +14380,7 @@
         <v>132211.082913083</v>
       </c>
       <c r="J183" s="18">
-        <f>E183-F183</f>
+        <f t="shared" si="2"/>
         <v>7947877.1771633998</v>
       </c>
       <c r="K183" s="18" t="str">
@@ -14433,7 +14421,7 @@
         <v>12875.8156308248</v>
       </c>
       <c r="J184" s="18">
-        <f>E184-F184</f>
+        <f t="shared" si="2"/>
         <v>2043105.2074658698</v>
       </c>
       <c r="K184" s="18" t="str">
@@ -14474,7 +14462,7 @@
         <v>15314.234061400301</v>
       </c>
       <c r="J185" s="18">
-        <f>E185-F185</f>
+        <f t="shared" si="2"/>
         <v>3088807.8373837899</v>
       </c>
       <c r="K185" s="18" t="str">
@@ -14515,7 +14503,7 @@
         <v>2760.4592417335198</v>
       </c>
       <c r="J186" s="18">
-        <f>E186-F186</f>
+        <f t="shared" si="2"/>
         <v>316855.890718307</v>
       </c>
       <c r="K186" s="18" t="str">
@@ -14556,7 +14544,7 @@
         <v>337.727350838245</v>
       </c>
       <c r="J187" s="18">
-        <f>E187-F187</f>
+        <f t="shared" si="2"/>
         <v>4235.2830186150968</v>
       </c>
       <c r="K187" s="18" t="str">
@@ -14597,7 +14585,7 @@
         <v>2153.43152942906</v>
       </c>
       <c r="J188" s="18">
-        <f>E188-F188</f>
+        <f t="shared" si="2"/>
         <v>38171.551193919004</v>
       </c>
       <c r="K188" s="18" t="str">
@@ -14638,7 +14626,7 @@
         <v>24657.674225150098</v>
       </c>
       <c r="J189" s="18">
-        <f>E189-F189</f>
+        <f t="shared" si="2"/>
         <v>1016507.4564619898</v>
       </c>
       <c r="K189" s="18" t="str">
@@ -14679,7 +14667,7 @@
         <v>328386.06199893099</v>
       </c>
       <c r="J190" s="18">
-        <f>E190-F190</f>
+        <f t="shared" si="2"/>
         <v>1371031.717067901</v>
       </c>
       <c r="K190" s="18" t="str">
@@ -14720,7 +14708,7 @@
         <v>30702.704031223198</v>
       </c>
       <c r="J191" s="18">
-        <f>E191-F191</f>
+        <f t="shared" si="2"/>
         <v>87517.411268430064</v>
       </c>
       <c r="K191" s="18" t="str">
@@ -14761,7 +14749,7 @@
         <v>65001.484759204403</v>
       </c>
       <c r="J192" s="18">
-        <f>E192-F192</f>
+        <f t="shared" si="2"/>
         <v>17561987.517764699</v>
       </c>
       <c r="K192" s="18" t="str">
@@ -14802,7 +14790,7 @@
         <v>37884.349728742498</v>
       </c>
       <c r="J193" s="18">
-        <f>E193-F193</f>
+        <f t="shared" si="2"/>
         <v>9862986.1157132015</v>
       </c>
       <c r="K193" s="18" t="str">
@@ -14843,7 +14831,7 @@
         <v>141113.41091784599</v>
       </c>
       <c r="J194" s="18">
-        <f>E194-F194</f>
+        <f t="shared" ref="J194:J206" si="3">E194-F194</f>
         <v>2421842.2677963004</v>
       </c>
       <c r="K194" s="18" t="str">
@@ -14884,7 +14872,7 @@
         <v>12723.8862655803</v>
       </c>
       <c r="J195" s="18">
-        <f>E195-F195</f>
+        <f t="shared" si="3"/>
         <v>46822.580682211992</v>
       </c>
       <c r="K195" s="18" t="str">
@@ -14925,7 +14913,7 @@
         <v>1914260.7875419599</v>
       </c>
       <c r="J196" s="18">
-        <f>E196-F196</f>
+        <f t="shared" si="3"/>
         <v>5350749.4225544035</v>
       </c>
       <c r="K196" s="18" t="str">
@@ -14966,7 +14954,7 @@
         <v>32662.726606986998</v>
       </c>
       <c r="J197" s="18">
-        <f>E197-F197</f>
+        <f t="shared" si="3"/>
         <v>6885163.7022401001</v>
       </c>
       <c r="K197" s="18" t="str">
@@ -15007,7 +14995,7 @@
         <v>153.70562883292001</v>
       </c>
       <c r="J198" s="18">
-        <f>E198-F198</f>
+        <f t="shared" si="3"/>
         <v>8874.9746831804987</v>
       </c>
       <c r="K198" s="18" t="str">
@@ -15048,7 +15036,7 @@
         <v>46148.270072494401</v>
       </c>
       <c r="J199" s="18">
-        <f>E199-F199</f>
+        <f t="shared" si="3"/>
         <v>4916215.8223105893</v>
       </c>
       <c r="K199" s="18" t="str">
@@ -15089,7 +15077,7 @@
         <v>91095.461522227095</v>
       </c>
       <c r="J200" s="18">
-        <f>E200-F200</f>
+        <f t="shared" si="3"/>
         <v>10289685.002514802</v>
       </c>
       <c r="K200" s="18" t="str">
@@ -15130,7 +15118,7 @@
         <v>991.10213330512397</v>
       </c>
       <c r="J201" s="18">
-        <f>E201-F201</f>
+        <f t="shared" si="3"/>
         <v>103405.117732878</v>
       </c>
       <c r="K201" s="18" t="str">
@@ -15171,7 +15159,7 @@
         <v>557.47919481535905</v>
       </c>
       <c r="J202" s="18">
-        <f>E202-F202</f>
+        <f t="shared" si="3"/>
         <v>42135.652681304404</v>
       </c>
       <c r="K202" s="18" t="str">
@@ -15212,7 +15200,7 @@
         <v>21850.558238337599</v>
       </c>
       <c r="J203" s="18">
-        <f>E203-F203</f>
+        <f t="shared" si="3"/>
         <v>11034725.578805991</v>
       </c>
       <c r="K203" s="18" t="str">
@@ -15253,7 +15241,7 @@
         <v>154467.928872683</v>
       </c>
       <c r="J204" s="18">
-        <f>E204-F204</f>
+        <f t="shared" si="3"/>
         <v>3969095.4079993982</v>
       </c>
       <c r="K204" s="18" t="str">
@@ -15294,7 +15282,7 @@
         <v>30108.7469240311</v>
       </c>
       <c r="J205" s="18">
-        <f>E205-F205</f>
+        <f t="shared" si="3"/>
         <v>7879753.4111723192</v>
       </c>
       <c r="K205" s="18" t="str">
@@ -15335,7 +15323,7 @@
         <v>35189.757049999498</v>
       </c>
       <c r="J206" s="18">
-        <f>E206-F206</f>
+        <f t="shared" si="3"/>
         <v>3971788.4643666409</v>
       </c>
       <c r="K206" s="18" t="str">
@@ -15371,15 +15359,15 @@
         <v>7805565576.2409821</v>
       </c>
       <c r="D207" s="22">
-        <f t="shared" ref="D207:F207" si="0">SUM(D1:D206)</f>
+        <f t="shared" ref="D207:F207" si="4">SUM(D1:D206)</f>
         <v>3880760739.4713182</v>
       </c>
       <c r="E207" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3924804836.7696676</v>
       </c>
       <c r="F207" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2745827218.6367908</v>
       </c>
       <c r="G207" s="22">
@@ -15391,11 +15379,11 @@
         <v>48170288.934758492</v>
       </c>
       <c r="I207" s="22">
-        <f t="shared" ref="I207:J207" si="1">SUM(I1:I206)</f>
+        <f t="shared" ref="I207:J207" si="5">SUM(I1:I206)</f>
         <v>14131226.607480431</v>
       </c>
       <c r="J207" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1178977618.1328721</v>
       </c>
       <c r="K207" s="21"/>
@@ -18586,7 +18574,7 @@
       <pane xSplit="8" ySplit="24" topLeftCell="I105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18654,7 +18642,7 @@
         <v>0.63072210101747672</v>
       </c>
       <c r="H2" s="3">
-        <v>13575</v>
+        <v>12457</v>
       </c>
       <c r="I2" s="13">
         <f>E2-F2</f>
@@ -18693,7 +18681,7 @@
         <v>0.66400000156784833</v>
       </c>
       <c r="H3" s="3">
-        <v>18714</v>
+        <v>24854</v>
       </c>
       <c r="I3" s="13">
         <f t="shared" ref="I3:I4" si="1">E3-F3</f>
@@ -18733,7 +18721,7 @@
         <v>0.62186059327125109</v>
       </c>
       <c r="H4" s="3">
-        <v>74457</v>
+        <v>78309</v>
       </c>
       <c r="I4" s="13">
         <f t="shared" si="1"/>
@@ -27324,8 +27312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27337,7 +27325,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
-        <v>43796</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
